--- a/m3c2_stats_distances.xlsx
+++ b/m3c2_stats_distances.xlsx
@@ -891,7 +891,7 @@
   <dimension ref="A1:BC31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1971,10 +1971,10 @@
         <v>65962.58097611081</v>
       </c>
       <c r="L7" s="9">
-        <v>0.1164272767960557</v>
+        <v>0.116427276796056</v>
       </c>
       <c r="M7" s="9">
-        <v>0.23285455359211149</v>
+        <v>0.23285455359211099</v>
       </c>
       <c r="N7">
         <v>-0.307172</v>
@@ -2295,11 +2295,11 @@
       </c>
       <c r="L9" s="9">
         <f t="shared" ref="L9" si="7">L8-L7</f>
-        <v>-5.8213638398027831E-2</v>
+        <v>-5.8213638398028122E-2</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" ref="M9" si="8">M8-M7</f>
-        <v>-0.11642727679605579</v>
+        <v>-0.11642727679605529</v>
       </c>
       <c r="N9" s="4">
         <f t="shared" ref="N9" si="9">N8-N7</f>
